--- a/impf_daten.xlsx
+++ b/impf_daten.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Waj\OneDrive - AWK Group AG\80_prog\projects\petproject_impfcounter_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2A2DAE-358F-44E8-AB08-BCF00B64E48B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="87">
   <si>
     <t>Kanton</t>
   </si>
@@ -152,15 +168,6 @@
   </si>
   <si>
     <t>BS</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>CHFL</t>
-  </si>
-  <si>
-    <t>FL</t>
   </si>
   <si>
     <t>FR</t>
@@ -289,11 +296,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,25 +363,34 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -416,7 +432,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,9 +464,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,6 +516,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -657,14 +709,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,7 +767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -734,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J2" s="3">
         <v>44186</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L2">
-        <v>47.3923</v>
+        <v>47.392299999999999</v>
       </c>
       <c r="M2">
-        <v>8.044600000000001</v>
+        <v>8.0446000000000009</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -755,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -781,19 +840,19 @@
         <v>1.8</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J3" s="3">
         <v>44209</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L3">
-        <v>47.3923</v>
+        <v>47.392299999999999</v>
       </c>
       <c r="M3">
-        <v>8.044600000000001</v>
+        <v>8.0446000000000009</v>
       </c>
       <c r="N3">
         <v>4500</v>
@@ -802,7 +861,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>85</v>
       </c>
@@ -828,19 +887,19 @@
         <v>1.9</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J4" s="3">
         <v>44220</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L4">
-        <v>47.3923</v>
+        <v>47.392299999999999</v>
       </c>
       <c r="M4">
-        <v>8.044600000000001</v>
+        <v>8.0446000000000009</v>
       </c>
       <c r="N4">
         <v>4500</v>
@@ -849,7 +908,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>13</v>
       </c>
@@ -875,19 +934,19 @@
         <v>2.4</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J5" s="3">
         <v>44223</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L5">
-        <v>47.3923</v>
+        <v>47.392299999999999</v>
       </c>
       <c r="M5">
-        <v>8.044600000000001</v>
+        <v>8.0446000000000009</v>
       </c>
       <c r="N5">
         <v>4500</v>
@@ -896,7 +955,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -928,13 +987,13 @@
         <v>44186</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L6">
-        <v>47.3162</v>
+        <v>47.316200000000002</v>
       </c>
       <c r="M6">
-        <v>9.431699999999999</v>
+        <v>9.4316999999999993</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -943,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -969,19 +1028,19 @@
         <v>0.2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J7" s="3">
         <v>44189</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L7">
-        <v>47.3162</v>
+        <v>47.316200000000002</v>
       </c>
       <c r="M7">
-        <v>9.431699999999999</v>
+        <v>9.4316999999999993</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -990,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1013,22 +1072,22 @@
         <v>16128</v>
       </c>
       <c r="H8">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J8" s="3">
         <v>44211</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L8">
-        <v>47.3162</v>
+        <v>47.316200000000002</v>
       </c>
       <c r="M8">
-        <v>9.431699999999999</v>
+        <v>9.4316999999999993</v>
       </c>
       <c r="N8">
         <v>500</v>
@@ -1037,7 +1096,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>90</v>
       </c>
@@ -1063,19 +1122,19 @@
         <v>5.7</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J9" s="3">
         <v>44220</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L9">
-        <v>47.3162</v>
+        <v>47.316200000000002</v>
       </c>
       <c r="M9">
-        <v>9.431699999999999</v>
+        <v>9.4316999999999993</v>
       </c>
       <c r="N9">
         <v>500</v>
@@ -1084,7 +1143,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>18</v>
       </c>
@@ -1110,19 +1169,19 @@
         <v>6.7</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J10" s="3">
         <v>44223</v>
       </c>
       <c r="K10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L10">
-        <v>47.3162</v>
+        <v>47.316200000000002</v>
       </c>
       <c r="M10">
-        <v>9.431699999999999</v>
+        <v>9.4316999999999993</v>
       </c>
       <c r="N10">
         <v>500</v>
@@ -1131,7 +1190,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1163,13 +1222,13 @@
         <v>44186</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L11">
-        <v>47.3665</v>
+        <v>47.366500000000002</v>
       </c>
       <c r="M11">
-        <v>9.3001</v>
+        <v>9.3001000000000005</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1178,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1204,19 +1263,19 @@
         <v>3.1</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J12" s="3">
         <v>44217</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L12">
-        <v>47.3665</v>
+        <v>47.366500000000002</v>
       </c>
       <c r="M12">
-        <v>9.3001</v>
+        <v>9.3001000000000005</v>
       </c>
       <c r="N12">
         <v>1718</v>
@@ -1225,7 +1284,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>89</v>
       </c>
@@ -1251,19 +1310,19 @@
         <v>4.2</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J13" s="3">
         <v>44220</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L13">
-        <v>47.3665</v>
+        <v>47.366500000000002</v>
       </c>
       <c r="M13">
-        <v>9.3001</v>
+        <v>9.3001000000000005</v>
       </c>
       <c r="N13">
         <v>1718</v>
@@ -1272,7 +1331,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>17</v>
       </c>
@@ -1298,19 +1357,19 @@
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J14" s="3">
         <v>44223</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L14">
-        <v>47.3665</v>
+        <v>47.366500000000002</v>
       </c>
       <c r="M14">
-        <v>9.3001</v>
+        <v>9.3001000000000005</v>
       </c>
       <c r="N14">
         <v>1718</v>
@@ -1319,7 +1378,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -1345,13 +1404,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J15" s="3">
         <v>44186</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L15">
         <v>46.948</v>
@@ -1366,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -1392,13 +1451,13 @@
         <v>0.2</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J16" s="3">
         <v>44210</v>
       </c>
       <c r="K16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L16">
         <v>46.948</v>
@@ -1413,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>18</v>
       </c>
@@ -1439,13 +1498,13 @@
         <v>0.4</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J17" s="3">
         <v>44212</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L17">
         <v>46.948</v>
@@ -1460,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>19</v>
       </c>
@@ -1486,13 +1545,13 @@
         <v>0.6</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J18" s="3">
         <v>44215</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L18">
         <v>46.948</v>
@@ -1507,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>20</v>
       </c>
@@ -1530,16 +1589,16 @@
         <v>1039474</v>
       </c>
       <c r="H19">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J19" s="3">
         <v>44217</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L19">
         <v>46.948</v>
@@ -1554,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>81</v>
       </c>
@@ -1580,13 +1639,13 @@
         <v>1.4</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J20" s="3">
         <v>44220</v>
       </c>
       <c r="K20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L20">
         <v>46.948</v>
@@ -1601,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>9</v>
       </c>
@@ -1627,13 +1686,13 @@
         <v>1.9</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J21" s="3">
         <v>44223</v>
       </c>
       <c r="K21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L21">
         <v>46.948</v>
@@ -1648,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>7</v>
       </c>
@@ -1680,13 +1739,13 @@
         <v>44186</v>
       </c>
       <c r="K22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L22">
-        <v>47.4418</v>
+        <v>47.441800000000001</v>
       </c>
       <c r="M22">
-        <v>7.7644</v>
+        <v>7.7644000000000002</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1695,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>8</v>
       </c>
@@ -1727,13 +1786,13 @@
         <v>44210</v>
       </c>
       <c r="K23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L23">
-        <v>47.4418</v>
+        <v>47.441800000000001</v>
       </c>
       <c r="M23">
-        <v>7.7644</v>
+        <v>7.7644000000000002</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1742,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>9</v>
       </c>
@@ -1774,13 +1833,13 @@
         <v>44214</v>
       </c>
       <c r="K24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L24">
-        <v>47.4418</v>
+        <v>47.441800000000001</v>
       </c>
       <c r="M24">
-        <v>7.7644</v>
+        <v>7.7644000000000002</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1789,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>10</v>
       </c>
@@ -1815,19 +1874,19 @@
         <v>2.4</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J25" s="3">
         <v>44216</v>
       </c>
       <c r="K25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L25">
-        <v>47.4418</v>
+        <v>47.441800000000001</v>
       </c>
       <c r="M25">
-        <v>7.7644</v>
+        <v>7.7644000000000002</v>
       </c>
       <c r="N25">
         <v>6989</v>
@@ -1836,7 +1895,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>84</v>
       </c>
@@ -1862,19 +1921,19 @@
         <v>2.9</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J26" s="3">
         <v>44220</v>
       </c>
       <c r="K26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L26">
-        <v>47.4418</v>
+        <v>47.441800000000001</v>
       </c>
       <c r="M26">
-        <v>7.7644</v>
+        <v>7.7644000000000002</v>
       </c>
       <c r="N26">
         <v>6989</v>
@@ -1883,7 +1942,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>12</v>
       </c>
@@ -1909,19 +1968,19 @@
         <v>3.4</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J27" s="3">
         <v>44223</v>
       </c>
       <c r="K27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L27">
-        <v>47.4418</v>
+        <v>47.441800000000001</v>
       </c>
       <c r="M27">
-        <v>7.7644</v>
+        <v>7.7644000000000002</v>
       </c>
       <c r="N27">
         <v>6989</v>
@@ -1930,7 +1989,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>11</v>
       </c>
@@ -1956,19 +2015,19 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J28" s="3">
         <v>44186</v>
       </c>
       <c r="K28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L28">
-        <v>47.5606</v>
+        <v>47.560600000000001</v>
       </c>
       <c r="M28">
-        <v>7.5906</v>
+        <v>7.5906000000000002</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -1977,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>12</v>
       </c>
@@ -2000,22 +2059,22 @@
         <v>195844</v>
       </c>
       <c r="H29">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J29" s="3">
         <v>44209</v>
       </c>
       <c r="K29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L29">
-        <v>47.5606</v>
+        <v>47.560600000000001</v>
       </c>
       <c r="M29">
-        <v>7.5906</v>
+        <v>7.5906000000000002</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2024,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>13</v>
       </c>
@@ -2050,19 +2109,19 @@
         <v>3.6</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J30" s="3">
         <v>44210</v>
       </c>
       <c r="K30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L30">
-        <v>47.5606</v>
+        <v>47.560600000000001</v>
       </c>
       <c r="M30">
-        <v>7.5906</v>
+        <v>7.5906000000000002</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2071,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>14</v>
       </c>
@@ -2097,19 +2156,19 @@
         <v>4</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J31" s="3">
         <v>44214</v>
       </c>
       <c r="K31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L31">
-        <v>47.5606</v>
+        <v>47.560600000000001</v>
       </c>
       <c r="M31">
-        <v>7.5906</v>
+        <v>7.5906000000000002</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2118,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>15</v>
       </c>
@@ -2144,19 +2203,19 @@
         <v>5.5</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J32" s="3">
         <v>44216</v>
       </c>
       <c r="K32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L32">
-        <v>47.5606</v>
+        <v>47.560600000000001</v>
       </c>
       <c r="M32">
-        <v>7.5906</v>
+        <v>7.5906000000000002</v>
       </c>
       <c r="N32">
         <v>10556</v>
@@ -2165,7 +2224,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>83</v>
       </c>
@@ -2191,19 +2250,19 @@
         <v>5.6</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J33" s="3">
         <v>44220</v>
       </c>
       <c r="K33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L33">
-        <v>47.5606</v>
+        <v>47.560600000000001</v>
       </c>
       <c r="M33">
-        <v>7.5906</v>
+        <v>7.5906000000000002</v>
       </c>
       <c r="N33">
         <v>10556</v>
@@ -2212,7 +2271,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>11</v>
       </c>
@@ -2238,19 +2297,19 @@
         <v>6.7</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J34" s="3">
         <v>44223</v>
       </c>
       <c r="K34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L34">
-        <v>47.5606</v>
+        <v>47.560600000000001</v>
       </c>
       <c r="M34">
-        <v>7.5906</v>
+        <v>7.5906000000000002</v>
       </c>
       <c r="N34">
         <v>10556</v>
@@ -2259,180 +2318,180 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
         <v>46</v>
       </c>
       <c r="D35">
-        <v>261438</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>10556</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>195844</v>
+        <v>321783</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J35" s="3">
-        <v>44223</v>
+        <v>44186</v>
       </c>
       <c r="K35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L35">
-        <v>47.5606</v>
+        <v>46.8</v>
       </c>
       <c r="M35">
-        <v>7.5906</v>
+        <v>7.15</v>
       </c>
       <c r="N35">
-        <v>10556</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36">
-        <v>262081</v>
+        <v>1500</v>
       </c>
       <c r="E36">
-        <v>10556</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>195844</v>
+        <v>321783</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J36" s="3">
-        <v>44223</v>
+        <v>44207</v>
       </c>
       <c r="K36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L36">
-        <v>47.5606</v>
+        <v>46.8</v>
       </c>
       <c r="M36">
-        <v>7.5906</v>
+        <v>7.15</v>
       </c>
       <c r="N36">
-        <v>10556</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D37">
-        <v>643</v>
+        <v>5039</v>
       </c>
       <c r="E37">
-        <v>10556</v>
+        <v>3600</v>
       </c>
       <c r="F37">
-        <v>5.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G37">
-        <v>195844</v>
+        <v>321783</v>
       </c>
       <c r="H37">
-        <v>1.7</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>76</v>
+        <v>1.6</v>
+      </c>
+      <c r="I37" t="s">
+        <v>75</v>
       </c>
       <c r="J37" s="3">
-        <v>44223</v>
+        <v>44216</v>
       </c>
       <c r="K37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L37">
-        <v>47.5606</v>
+        <v>46.8</v>
       </c>
       <c r="M37">
-        <v>7.5906</v>
+        <v>7.15</v>
       </c>
       <c r="N37">
-        <v>10556</v>
+        <v>3600</v>
       </c>
       <c r="O37">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>6084</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G38">
         <v>321783</v>
       </c>
       <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>77</v>
+        <v>1.9</v>
+      </c>
+      <c r="I38" t="s">
+        <v>75</v>
       </c>
       <c r="J38" s="3">
-        <v>44186</v>
+        <v>44220</v>
       </c>
       <c r="K38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L38">
         <v>46.8</v>
@@ -2441,45 +2500,45 @@
         <v>7.15</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="O38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D39">
-        <v>1500</v>
+        <v>7640</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G39">
         <v>321783</v>
       </c>
       <c r="H39">
-        <v>0.5</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>77</v>
+        <v>2.4</v>
+      </c>
+      <c r="I39" t="s">
+        <v>75</v>
       </c>
       <c r="J39" s="3">
-        <v>44207</v>
+        <v>44223</v>
       </c>
       <c r="K39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L39">
         <v>46.8</v>
@@ -2488,186 +2547,186 @@
         <v>7.15</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="O39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D40">
-        <v>5039</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>321783</v>
+        <v>504128</v>
       </c>
       <c r="H40">
-        <v>1.6</v>
-      </c>
-      <c r="I40" t="s">
-        <v>78</v>
+        <v>0</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="J40" s="3">
-        <v>44216</v>
+        <v>44186</v>
       </c>
       <c r="K40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L40">
-        <v>46.8</v>
+        <v>46.2</v>
       </c>
       <c r="M40">
-        <v>7.15</v>
+        <v>6.15</v>
       </c>
       <c r="N40">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D41">
-        <v>6084</v>
+        <v>5307</v>
       </c>
       <c r="E41">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>321783</v>
+        <v>504128</v>
       </c>
       <c r="H41">
-        <v>1.9</v>
-      </c>
-      <c r="I41" t="s">
-        <v>78</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="J41" s="3">
-        <v>44220</v>
+        <v>44209</v>
       </c>
       <c r="K41" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L41">
-        <v>46.8</v>
+        <v>46.2</v>
       </c>
       <c r="M41">
-        <v>7.15</v>
+        <v>6.15</v>
       </c>
       <c r="N41">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D42">
-        <v>7640</v>
+        <v>7118</v>
       </c>
       <c r="E42">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>321783</v>
+        <v>504128</v>
       </c>
       <c r="H42">
-        <v>2.4</v>
-      </c>
-      <c r="I42" t="s">
-        <v>78</v>
+        <v>1.4</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="J42" s="3">
-        <v>44223</v>
+        <v>44210</v>
       </c>
       <c r="K42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L42">
-        <v>46.8</v>
+        <v>46.2</v>
       </c>
       <c r="M42">
-        <v>7.15</v>
+        <v>6.15</v>
       </c>
       <c r="N42">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>10819</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>9828</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G43">
         <v>504128</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J43" s="3">
-        <v>44186</v>
+        <v>44216</v>
       </c>
       <c r="K43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L43">
         <v>46.2</v>
@@ -2676,45 +2735,45 @@
         <v>6.15</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>9828</v>
       </c>
       <c r="O43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D44">
-        <v>5307</v>
+        <v>11811</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>9828</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G44">
         <v>504128</v>
       </c>
       <c r="H44">
-        <v>1.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J44" s="3">
-        <v>44209</v>
+        <v>44220</v>
       </c>
       <c r="K44" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L44">
         <v>46.2</v>
@@ -2723,45 +2782,45 @@
         <v>6.15</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>9828</v>
       </c>
       <c r="O44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D45">
-        <v>7118</v>
+        <v>16284</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>9828</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G45">
         <v>504128</v>
       </c>
       <c r="H45">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J45" s="3">
-        <v>44210</v>
+        <v>44223</v>
       </c>
       <c r="K45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L45">
         <v>46.2</v>
@@ -2770,1293 +2829,1293 @@
         <v>6.15</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>9828</v>
       </c>
       <c r="O45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D46">
-        <v>10819</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>9828</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>504128</v>
+        <v>40590</v>
       </c>
       <c r="H46">
-        <v>2.1</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>44216</v>
+        <v>44186</v>
       </c>
       <c r="K46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L46">
-        <v>46.2</v>
+        <v>47.033099999999997</v>
       </c>
       <c r="M46">
-        <v>6.15</v>
+        <v>9.0663999999999998</v>
       </c>
       <c r="N46">
-        <v>9828</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D47">
-        <v>11811</v>
+        <v>900</v>
       </c>
       <c r="E47">
-        <v>9828</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>504128</v>
+        <v>40590</v>
       </c>
       <c r="H47">
-        <v>2.3</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>79</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>44220</v>
+        <v>44209</v>
       </c>
       <c r="K47" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L47">
-        <v>46.2</v>
+        <v>47.033099999999997</v>
       </c>
       <c r="M47">
-        <v>6.15</v>
+        <v>9.0663999999999998</v>
       </c>
       <c r="N47">
-        <v>9828</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D48">
-        <v>16284</v>
+        <v>1250</v>
       </c>
       <c r="E48">
-        <v>9828</v>
+        <v>900</v>
       </c>
       <c r="F48">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G48">
-        <v>504128</v>
+        <v>40590</v>
       </c>
       <c r="H48">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J48" s="3">
-        <v>44223</v>
+        <v>44211</v>
       </c>
       <c r="K48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L48">
-        <v>46.2</v>
+        <v>47.033099999999997</v>
       </c>
       <c r="M48">
-        <v>6.15</v>
+        <v>9.0663999999999998</v>
       </c>
       <c r="N48">
-        <v>9828</v>
+        <v>900</v>
       </c>
       <c r="O48">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
         <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1540</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G49">
         <v>40590</v>
       </c>
       <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
+        <v>3.8</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="J49" s="3">
-        <v>44186</v>
+        <v>44220</v>
       </c>
       <c r="K49" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L49">
-        <v>47.0331</v>
+        <v>47.033099999999997</v>
       </c>
       <c r="M49">
-        <v>9.0664</v>
+        <v>9.0663999999999998</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="O49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D50">
+        <v>1960</v>
+      </c>
+      <c r="E50">
         <v>900</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
       <c r="F50">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G50">
         <v>40590</v>
       </c>
       <c r="H50">
-        <v>2.2</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="J50" s="3">
+        <v>44223</v>
+      </c>
+      <c r="K50" t="s">
+        <v>86</v>
+      </c>
+      <c r="L50">
+        <v>47.033099999999997</v>
+      </c>
+      <c r="M50">
+        <v>9.0663999999999998</v>
+      </c>
+      <c r="N50">
+        <v>900</v>
+      </c>
+      <c r="O50">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>199021</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>68</v>
+      </c>
+      <c r="J51" s="3">
+        <v>44186</v>
+      </c>
+      <c r="K51" t="s">
+        <v>86</v>
+      </c>
+      <c r="L51">
+        <v>46.8521</v>
+      </c>
+      <c r="M51">
+        <v>9.5297000000000001</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>32</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52">
+        <v>1500</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>199021</v>
+      </c>
+      <c r="H52">
+        <v>0.8</v>
+      </c>
+      <c r="I52" t="s">
+        <v>68</v>
+      </c>
+      <c r="J52" s="3">
         <v>44209</v>
       </c>
-      <c r="K50" t="s">
-        <v>89</v>
-      </c>
-      <c r="L50">
-        <v>47.0331</v>
-      </c>
-      <c r="M50">
-        <v>9.0664</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="1">
-        <v>30</v>
-      </c>
-      <c r="B51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51">
-        <v>1250</v>
-      </c>
-      <c r="E51">
-        <v>900</v>
-      </c>
-      <c r="F51">
-        <v>2.2</v>
-      </c>
-      <c r="G51">
-        <v>40590</v>
-      </c>
-      <c r="H51">
-        <v>3.1</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J51" s="3">
-        <v>44211</v>
-      </c>
-      <c r="K51" t="s">
-        <v>89</v>
-      </c>
-      <c r="L51">
-        <v>47.0331</v>
-      </c>
-      <c r="M51">
-        <v>9.0664</v>
-      </c>
-      <c r="N51">
-        <v>900</v>
-      </c>
-      <c r="O51">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="1">
-        <v>92</v>
-      </c>
-      <c r="B52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52">
-        <v>1540</v>
-      </c>
-      <c r="E52">
-        <v>900</v>
-      </c>
-      <c r="F52">
-        <v>2.2</v>
-      </c>
-      <c r="G52">
-        <v>40590</v>
-      </c>
-      <c r="H52">
-        <v>3.8</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J52" s="3">
-        <v>44220</v>
-      </c>
       <c r="K52" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L52">
-        <v>47.0331</v>
+        <v>46.8521</v>
       </c>
       <c r="M52">
-        <v>9.0664</v>
+        <v>9.5297000000000001</v>
       </c>
       <c r="N52">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="O52">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D53">
-        <v>1960</v>
+        <v>3747</v>
       </c>
       <c r="E53">
-        <v>900</v>
+        <v>3747</v>
       </c>
       <c r="F53">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="G53">
-        <v>40590</v>
+        <v>199021</v>
       </c>
       <c r="H53">
-        <v>4.8</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>80</v>
+        <v>1.9</v>
+      </c>
+      <c r="I53" t="s">
+        <v>68</v>
       </c>
       <c r="J53" s="3">
-        <v>44223</v>
+        <v>44216</v>
       </c>
       <c r="K53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L53">
-        <v>47.0331</v>
+        <v>46.8521</v>
       </c>
       <c r="M53">
-        <v>9.0664</v>
+        <v>9.5297000000000001</v>
       </c>
       <c r="N53">
-        <v>900</v>
+        <v>3747</v>
       </c>
       <c r="O53">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
         <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>4316</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>3747</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G54">
         <v>199021</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I54" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J54" s="3">
-        <v>44186</v>
+        <v>44220</v>
       </c>
       <c r="K54" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L54">
         <v>46.8521</v>
       </c>
       <c r="M54">
-        <v>9.5297</v>
+        <v>9.5297000000000001</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>3747</v>
       </c>
       <c r="O54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B55" t="s">
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D55">
-        <v>1500</v>
+        <v>6640</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>3747</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G55">
         <v>199021</v>
       </c>
       <c r="H55">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="I55" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J55" s="3">
-        <v>44209</v>
+        <v>44223</v>
       </c>
       <c r="K55" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L55">
         <v>46.8521</v>
       </c>
       <c r="M55">
-        <v>9.5297</v>
+        <v>9.5297000000000001</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>3747</v>
       </c>
       <c r="O55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D56">
-        <v>3747</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>3747</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>199021</v>
+        <v>73584</v>
       </c>
       <c r="H56">
-        <v>1.9</v>
-      </c>
-      <c r="I56" t="s">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="J56" s="3">
-        <v>44216</v>
+        <v>44186</v>
       </c>
       <c r="K56" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L56">
-        <v>46.8521</v>
+        <v>47.365299999999998</v>
       </c>
       <c r="M56">
-        <v>9.5297</v>
+        <v>7.3472</v>
       </c>
       <c r="N56">
-        <v>3747</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D57">
-        <v>4316</v>
+        <v>520</v>
       </c>
       <c r="E57">
-        <v>3747</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>199021</v>
+        <v>73584</v>
       </c>
       <c r="H57">
-        <v>2.2</v>
-      </c>
-      <c r="I57" t="s">
-        <v>71</v>
+        <v>0.7</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="J57" s="3">
-        <v>44220</v>
+        <v>44204</v>
       </c>
       <c r="K57" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L57">
-        <v>46.8521</v>
+        <v>47.365299999999998</v>
       </c>
       <c r="M57">
-        <v>9.5297</v>
+        <v>7.3472</v>
       </c>
       <c r="N57">
-        <v>3747</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D58">
-        <v>6640</v>
+        <v>1906</v>
       </c>
       <c r="E58">
-        <v>3747</v>
+        <v>958</v>
       </c>
       <c r="F58">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="G58">
-        <v>199021</v>
+        <v>73584</v>
       </c>
       <c r="H58">
-        <v>3.3</v>
-      </c>
-      <c r="I58" t="s">
-        <v>71</v>
+        <v>2.6</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="J58" s="3">
-        <v>44223</v>
+        <v>44213</v>
       </c>
       <c r="K58" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L58">
-        <v>46.8521</v>
+        <v>47.365299999999998</v>
       </c>
       <c r="M58">
-        <v>9.5297</v>
+        <v>7.3472</v>
       </c>
       <c r="N58">
-        <v>3747</v>
+        <v>958</v>
       </c>
       <c r="O58">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>2032</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G59">
         <v>73584</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J59" s="3">
-        <v>44186</v>
+        <v>44220</v>
       </c>
       <c r="K59" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L59">
-        <v>47.3653</v>
+        <v>47.365299999999998</v>
       </c>
       <c r="M59">
         <v>7.3472</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="O59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D60">
-        <v>520</v>
+        <v>2670</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G60">
         <v>73584</v>
       </c>
       <c r="H60">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J60" s="3">
-        <v>44204</v>
+        <v>44223</v>
       </c>
       <c r="K60" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L60">
-        <v>47.3653</v>
+        <v>47.365299999999998</v>
       </c>
       <c r="M60">
         <v>7.3472</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>958</v>
       </c>
       <c r="O60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C61" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D61">
-        <v>1906</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>958</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>73584</v>
+        <v>413120</v>
       </c>
       <c r="H61">
-        <v>2.6</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>81</v>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>44213</v>
+        <v>44186</v>
       </c>
       <c r="K61" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L61">
-        <v>47.3653</v>
+        <v>47.050199999999997</v>
       </c>
       <c r="M61">
-        <v>7.3472</v>
+        <v>8.3093000000000004</v>
       </c>
       <c r="N61">
-        <v>958</v>
+        <v>0</v>
       </c>
       <c r="O61">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D62">
-        <v>2032</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>958</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>73584</v>
+        <v>413120</v>
       </c>
       <c r="H62">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="J62" s="3">
-        <v>44220</v>
+        <v>44188</v>
       </c>
       <c r="K62" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L62">
-        <v>47.3653</v>
+        <v>47.050199999999997</v>
       </c>
       <c r="M62">
-        <v>7.3472</v>
+        <v>8.3093000000000004</v>
       </c>
       <c r="N62">
-        <v>958</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D63">
-        <v>2670</v>
+        <v>9101</v>
       </c>
       <c r="E63">
-        <v>958</v>
+        <v>7330</v>
       </c>
       <c r="F63">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="G63">
-        <v>73584</v>
+        <v>413120</v>
       </c>
       <c r="H63">
-        <v>3.6</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>81</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I63" t="s">
+        <v>69</v>
       </c>
       <c r="J63" s="3">
-        <v>44223</v>
+        <v>44214</v>
       </c>
       <c r="K63" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L63">
-        <v>47.3653</v>
+        <v>47.050199999999997</v>
       </c>
       <c r="M63">
-        <v>7.3472</v>
+        <v>8.3093000000000004</v>
       </c>
       <c r="N63">
-        <v>958</v>
+        <v>7330</v>
       </c>
       <c r="O63">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
         <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>11241</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>7330</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G64">
         <v>413120</v>
       </c>
       <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
+        <v>2.7</v>
+      </c>
+      <c r="I64" t="s">
+        <v>69</v>
       </c>
       <c r="J64" s="3">
-        <v>44186</v>
+        <v>44220</v>
       </c>
       <c r="K64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L64">
-        <v>47.0502</v>
+        <v>47.050199999999997</v>
       </c>
       <c r="M64">
-        <v>8.3093</v>
+        <v>8.3093000000000004</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>7330</v>
       </c>
       <c r="O64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
         <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>15454</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>7330</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G65">
         <v>413120</v>
       </c>
       <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>70</v>
+        <v>3.7</v>
+      </c>
+      <c r="I65" t="s">
+        <v>69</v>
       </c>
       <c r="J65" s="3">
-        <v>44188</v>
+        <v>44223</v>
       </c>
       <c r="K65" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L65">
-        <v>47.0502</v>
+        <v>47.050199999999997</v>
       </c>
       <c r="M65">
-        <v>8.3093</v>
+        <v>8.3093000000000004</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>7330</v>
       </c>
       <c r="O65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D66">
-        <v>9101</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>7330</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>413120</v>
+        <v>176496</v>
       </c>
       <c r="H66">
-        <v>2.2</v>
-      </c>
-      <c r="I66" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
       </c>
       <c r="J66" s="3">
-        <v>44214</v>
+        <v>44186</v>
       </c>
       <c r="K66" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L66">
-        <v>47.0502</v>
+        <v>46.99</v>
       </c>
       <c r="M66">
-        <v>8.3093</v>
+        <v>6.9292999999999996</v>
       </c>
       <c r="N66">
-        <v>7330</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D67">
-        <v>11241</v>
+        <v>2040</v>
       </c>
       <c r="E67">
-        <v>7330</v>
+        <v>1908</v>
       </c>
       <c r="F67">
-        <v>1.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G67">
-        <v>413120</v>
+        <v>176496</v>
       </c>
       <c r="H67">
-        <v>2.7</v>
-      </c>
-      <c r="I67" t="s">
-        <v>72</v>
+        <v>1.2</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="J67" s="3">
+        <v>44217</v>
+      </c>
+      <c r="K67" t="s">
+        <v>86</v>
+      </c>
+      <c r="L67">
+        <v>46.99</v>
+      </c>
+      <c r="M67">
+        <v>6.9292999999999996</v>
+      </c>
+      <c r="N67">
+        <v>1908</v>
+      </c>
+      <c r="O67">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>79</v>
+      </c>
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68">
+        <v>2585</v>
+      </c>
+      <c r="E68">
+        <v>1908</v>
+      </c>
+      <c r="F68">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G68">
+        <v>176496</v>
+      </c>
+      <c r="H68">
+        <v>1.5</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J68" s="3">
         <v>44220</v>
       </c>
-      <c r="K67" t="s">
-        <v>89</v>
-      </c>
-      <c r="L67">
-        <v>47.0502</v>
-      </c>
-      <c r="M67">
-        <v>8.3093</v>
-      </c>
-      <c r="N67">
-        <v>7330</v>
-      </c>
-      <c r="O67">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="1">
-        <v>23</v>
-      </c>
-      <c r="B68" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" t="s">
-        <v>54</v>
-      </c>
-      <c r="D68">
-        <v>15454</v>
-      </c>
-      <c r="E68">
-        <v>7330</v>
-      </c>
-      <c r="F68">
-        <v>1.8</v>
-      </c>
-      <c r="G68">
-        <v>413120</v>
-      </c>
-      <c r="H68">
-        <v>3.7</v>
-      </c>
-      <c r="I68" t="s">
-        <v>72</v>
-      </c>
-      <c r="J68" s="3">
-        <v>44223</v>
-      </c>
       <c r="K68" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L68">
-        <v>47.0502</v>
+        <v>46.99</v>
       </c>
       <c r="M68">
-        <v>8.3093</v>
+        <v>6.9292999999999996</v>
       </c>
       <c r="N68">
-        <v>7330</v>
+        <v>1908</v>
       </c>
       <c r="O68">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>3852</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1908</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G69">
         <v>176496</v>
       </c>
       <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="J69" s="3">
-        <v>44186</v>
+        <v>44223</v>
       </c>
       <c r="K69" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L69">
         <v>46.99</v>
       </c>
       <c r="M69">
-        <v>6.9293</v>
+        <v>6.9292999999999996</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>1908</v>
       </c>
       <c r="O69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D70">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>176496</v>
+        <v>43087</v>
       </c>
       <c r="H70">
-        <v>1.2</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>44217</v>
+        <v>44186</v>
       </c>
       <c r="K70" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L70">
-        <v>46.99</v>
+        <v>46.959400000000002</v>
       </c>
       <c r="M70">
-        <v>6.9293</v>
+        <v>8.3666999999999998</v>
       </c>
       <c r="N70">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="O70">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D71">
-        <v>2585</v>
+        <v>100</v>
       </c>
       <c r="E71">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>176496</v>
+        <v>43087</v>
       </c>
       <c r="H71">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="J71" s="3">
-        <v>44220</v>
+        <v>44186</v>
       </c>
       <c r="K71" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L71">
-        <v>46.99</v>
+        <v>46.959400000000002</v>
       </c>
       <c r="M71">
-        <v>6.9293</v>
+        <v>8.3666999999999998</v>
       </c>
       <c r="N71">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="O71">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D72">
-        <v>3852</v>
+        <v>100</v>
       </c>
       <c r="E72">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>176496</v>
+        <v>43087</v>
       </c>
       <c r="H72">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="J72" s="3">
-        <v>44223</v>
+        <v>44209</v>
       </c>
       <c r="K72" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L72">
-        <v>46.99</v>
+        <v>46.959400000000002</v>
       </c>
       <c r="M72">
-        <v>6.9293</v>
+        <v>8.3666999999999998</v>
       </c>
       <c r="N72">
-        <v>1908</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B73" t="s">
         <v>27</v>
       </c>
       <c r="C73" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1950</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -4068,22 +4127,22 @@
         <v>43087</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73" s="3">
-        <v>44186</v>
+        <v>44218</v>
       </c>
       <c r="K73" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L73">
-        <v>46.9594</v>
+        <v>46.959400000000002</v>
       </c>
       <c r="M73">
-        <v>8.3667</v>
+        <v>8.3666999999999998</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4092,18 +4151,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
         <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D74">
-        <v>100</v>
+        <v>3218</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4115,22 +4174,22 @@
         <v>43087</v>
       </c>
       <c r="H74">
-        <v>0.2</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>70</v>
+        <v>7.5</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
       </c>
       <c r="J74" s="3">
-        <v>44186</v>
+        <v>44220</v>
       </c>
       <c r="K74" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L74">
-        <v>46.9594</v>
+        <v>46.959400000000002</v>
       </c>
       <c r="M74">
-        <v>8.3667</v>
+        <v>8.3666999999999998</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4139,18 +4198,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B75" t="s">
         <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D75">
-        <v>100</v>
+        <v>3218</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -4162,22 +4221,22 @@
         <v>43087</v>
       </c>
       <c r="H75">
-        <v>0.2</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>70</v>
+        <v>7.5</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
       </c>
       <c r="J75" s="3">
-        <v>44209</v>
+        <v>44223</v>
       </c>
       <c r="K75" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L75">
-        <v>46.9594</v>
+        <v>46.959400000000002</v>
       </c>
       <c r="M75">
-        <v>8.3667</v>
+        <v>8.3666999999999998</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4186,18 +4245,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D76">
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -4206,119 +4265,119 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>43087</v>
+        <v>37930</v>
       </c>
       <c r="H76">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" s="3">
+        <v>44186</v>
+      </c>
+      <c r="K76" t="s">
+        <v>86</v>
+      </c>
+      <c r="L76">
+        <v>46.896900000000002</v>
+      </c>
+      <c r="M76">
+        <v>8.2469000000000001</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>47</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77">
+        <v>1865</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>37930</v>
+      </c>
+      <c r="H77">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
         <v>44218</v>
       </c>
-      <c r="K76" t="s">
-        <v>89</v>
-      </c>
-      <c r="L76">
-        <v>46.9594</v>
-      </c>
-      <c r="M76">
-        <v>8.3667</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="1">
-        <v>96</v>
-      </c>
-      <c r="B77" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77" t="s">
-        <v>56</v>
-      </c>
-      <c r="D77">
-        <v>3218</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>43087</v>
-      </c>
-      <c r="H77">
-        <v>7.5</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77" s="3">
+      <c r="K77" t="s">
+        <v>86</v>
+      </c>
+      <c r="L77">
+        <v>46.896900000000002</v>
+      </c>
+      <c r="M77">
+        <v>8.2469000000000001</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>97</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78">
+        <v>1866</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>37930</v>
+      </c>
+      <c r="H78">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" s="3">
         <v>44220</v>
       </c>
-      <c r="K77" t="s">
-        <v>89</v>
-      </c>
-      <c r="L77">
-        <v>46.9594</v>
-      </c>
-      <c r="M77">
-        <v>8.3667</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" s="1">
-        <v>24</v>
-      </c>
-      <c r="B78" t="s">
-        <v>27</v>
-      </c>
-      <c r="C78" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78">
-        <v>3218</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>43087</v>
-      </c>
-      <c r="H78">
-        <v>7.5</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78" s="3">
-        <v>44223</v>
-      </c>
       <c r="K78" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L78">
-        <v>46.9594</v>
+        <v>46.896900000000002</v>
       </c>
       <c r="M78">
-        <v>8.3667</v>
+        <v>8.2469000000000001</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4327,18 +4386,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B79" t="s">
         <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>2036</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -4350,69 +4409,69 @@
         <v>37930</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" s="3">
+        <v>44223</v>
+      </c>
+      <c r="K79" t="s">
+        <v>86</v>
+      </c>
+      <c r="L79">
+        <v>46.896900000000002</v>
+      </c>
+      <c r="M79">
+        <v>8.2469000000000001</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>58</v>
+      </c>
+      <c r="B80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>510734</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" s="3">
         <v>44186</v>
       </c>
-      <c r="K79" t="s">
-        <v>89</v>
-      </c>
-      <c r="L79">
-        <v>46.8969</v>
-      </c>
-      <c r="M79">
-        <v>8.2469</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="A80" s="1">
-        <v>47</v>
-      </c>
-      <c r="B80" t="s">
-        <v>28</v>
-      </c>
-      <c r="C80" t="s">
-        <v>57</v>
-      </c>
-      <c r="D80">
-        <v>1865</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>37930</v>
-      </c>
-      <c r="H80">
-        <v>4.9</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80" s="3">
-        <v>44218</v>
-      </c>
       <c r="K80" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L80">
-        <v>46.8969</v>
+        <v>47.423299999999998</v>
       </c>
       <c r="M80">
-        <v>8.2469</v>
+        <v>9.3772000000000002</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4421,1851 +4480,1851 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D81">
-        <v>1866</v>
+        <v>7230</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
-        <v>37930</v>
+        <v>510734</v>
       </c>
       <c r="H81">
-        <v>4.9</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
+        <v>1.4</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="J81" s="3">
+        <v>44215</v>
+      </c>
+      <c r="K81" t="s">
+        <v>86</v>
+      </c>
+      <c r="L81">
+        <v>47.423299999999998</v>
+      </c>
+      <c r="M81">
+        <v>9.3772000000000002</v>
+      </c>
+      <c r="N81">
+        <v>5200</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82">
+        <v>8870</v>
+      </c>
+      <c r="E82">
+        <v>5200</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>510734</v>
+      </c>
+      <c r="H82">
+        <v>1.7</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J82" s="3">
         <v>44220</v>
       </c>
-      <c r="K81" t="s">
-        <v>89</v>
-      </c>
-      <c r="L81">
-        <v>46.8969</v>
-      </c>
-      <c r="M81">
-        <v>8.2469</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
-      <c r="A82" s="1">
-        <v>25</v>
-      </c>
-      <c r="B82" t="s">
-        <v>28</v>
-      </c>
-      <c r="C82" t="s">
-        <v>57</v>
-      </c>
-      <c r="D82">
-        <v>2036</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>37930</v>
-      </c>
-      <c r="H82">
-        <v>5.4</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82" s="3">
-        <v>44223</v>
-      </c>
       <c r="K82" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L82">
-        <v>46.8969</v>
+        <v>47.423299999999998</v>
       </c>
       <c r="M82">
-        <v>8.2469</v>
+        <v>9.3772000000000002</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="O82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B83" t="s">
         <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>12782</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>510734</v>
       </c>
       <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="J83" s="3">
+        <v>44223</v>
+      </c>
+      <c r="K83" t="s">
+        <v>86</v>
+      </c>
+      <c r="L83">
+        <v>47.423299999999998</v>
+      </c>
+      <c r="M83">
+        <v>9.3772000000000002</v>
+      </c>
+      <c r="N83">
+        <v>5200</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>48</v>
+      </c>
+      <c r="B84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" t="s">
+        <v>56</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>82348</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J84" s="3">
         <v>44186</v>
       </c>
-      <c r="K83" t="s">
-        <v>89</v>
-      </c>
-      <c r="L83">
-        <v>47.4233</v>
-      </c>
-      <c r="M83">
-        <v>9.3772</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" s="1">
-        <v>59</v>
-      </c>
-      <c r="B84" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" t="s">
-        <v>58</v>
-      </c>
-      <c r="D84">
-        <v>7230</v>
-      </c>
-      <c r="E84">
-        <v>5200</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>510734</v>
-      </c>
-      <c r="H84">
-        <v>1.4</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J84" s="3">
-        <v>44215</v>
-      </c>
       <c r="K84" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L84">
-        <v>47.4233</v>
+        <v>47.6965</v>
       </c>
       <c r="M84">
-        <v>9.3772</v>
+        <v>8.6339000000000006</v>
       </c>
       <c r="N84">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="O84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C85" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D85">
-        <v>8870</v>
+        <v>1400</v>
       </c>
       <c r="E85">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>510734</v>
+        <v>82348</v>
       </c>
       <c r="H85">
         <v>1.7</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J85" s="3">
-        <v>44220</v>
+        <v>44207</v>
       </c>
       <c r="K85" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L85">
-        <v>47.4233</v>
+        <v>47.6965</v>
       </c>
       <c r="M85">
-        <v>9.3772</v>
+        <v>8.6339000000000006</v>
       </c>
       <c r="N85">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="O85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C86" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D86">
-        <v>12782</v>
+        <v>3554</v>
       </c>
       <c r="E86">
-        <v>5200</v>
+        <v>2450</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G86">
-        <v>510734</v>
+        <v>82348</v>
       </c>
       <c r="H86">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J86" s="3">
-        <v>44223</v>
+        <v>44214</v>
       </c>
       <c r="K86" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L86">
-        <v>47.4233</v>
+        <v>47.6965</v>
       </c>
       <c r="M86">
-        <v>9.3772</v>
+        <v>8.6339000000000006</v>
       </c>
       <c r="N86">
-        <v>5200</v>
+        <v>2450</v>
       </c>
       <c r="O86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>3982</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G87">
         <v>82348</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J87" s="3">
-        <v>44186</v>
+        <v>44220</v>
       </c>
       <c r="K87" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L87">
         <v>47.6965</v>
       </c>
       <c r="M87">
-        <v>8.633900000000001</v>
+        <v>8.6339000000000006</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="O87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B88" t="s">
         <v>30</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D88">
-        <v>1400</v>
+        <v>4989</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G88">
         <v>82348</v>
       </c>
       <c r="H88">
-        <v>1.7</v>
+        <v>6.1</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J88" s="3">
-        <v>44207</v>
+        <v>44223</v>
       </c>
       <c r="K88" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L88">
         <v>47.6965</v>
       </c>
       <c r="M88">
-        <v>8.633900000000001</v>
+        <v>8.6339000000000006</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>2450</v>
       </c>
       <c r="O88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D89">
-        <v>3554</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>82348</v>
+        <v>275247</v>
       </c>
       <c r="H89">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J89" s="3">
+        <v>44186</v>
+      </c>
+      <c r="K89" t="s">
+        <v>86</v>
+      </c>
+      <c r="L89">
+        <v>47.193100000000001</v>
+      </c>
+      <c r="M89">
+        <v>7.3958000000000004</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>55</v>
+      </c>
+      <c r="B90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90">
+        <v>5003</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>275247</v>
+      </c>
+      <c r="H90">
+        <v>1.8</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J90" s="3">
+        <v>44209</v>
+      </c>
+      <c r="K90" t="s">
+        <v>86</v>
+      </c>
+      <c r="L90">
+        <v>47.193100000000001</v>
+      </c>
+      <c r="M90">
+        <v>7.3958000000000004</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>56</v>
+      </c>
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91">
+        <v>7232</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>275247</v>
+      </c>
+      <c r="H91">
+        <v>2.6</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J91" s="3">
         <v>44214</v>
       </c>
-      <c r="K89" t="s">
-        <v>89</v>
-      </c>
-      <c r="L89">
-        <v>47.6965</v>
-      </c>
-      <c r="M89">
-        <v>8.633900000000001</v>
-      </c>
-      <c r="N89">
-        <v>2450</v>
-      </c>
-      <c r="O89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="1">
-        <v>87</v>
-      </c>
-      <c r="B90" t="s">
-        <v>30</v>
-      </c>
-      <c r="C90" t="s">
-        <v>59</v>
-      </c>
-      <c r="D90">
-        <v>3982</v>
-      </c>
-      <c r="E90">
-        <v>2450</v>
-      </c>
-      <c r="F90">
-        <v>3</v>
-      </c>
-      <c r="G90">
-        <v>82348</v>
-      </c>
-      <c r="H90">
-        <v>4.8</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J90" s="3">
-        <v>44220</v>
-      </c>
-      <c r="K90" t="s">
-        <v>89</v>
-      </c>
-      <c r="L90">
-        <v>47.6965</v>
-      </c>
-      <c r="M90">
-        <v>8.633900000000001</v>
-      </c>
-      <c r="N90">
-        <v>2450</v>
-      </c>
-      <c r="O90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="A91" s="1">
-        <v>15</v>
-      </c>
-      <c r="B91" t="s">
-        <v>30</v>
-      </c>
-      <c r="C91" t="s">
-        <v>59</v>
-      </c>
-      <c r="D91">
-        <v>4989</v>
-      </c>
-      <c r="E91">
-        <v>2450</v>
-      </c>
-      <c r="F91">
-        <v>3</v>
-      </c>
-      <c r="G91">
-        <v>82348</v>
-      </c>
-      <c r="H91">
-        <v>6.1</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J91" s="3">
-        <v>44223</v>
-      </c>
       <c r="K91" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L91">
-        <v>47.6965</v>
+        <v>47.193100000000001</v>
       </c>
       <c r="M91">
-        <v>8.633900000000001</v>
+        <v>7.3958000000000004</v>
       </c>
       <c r="N91">
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="O91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B92" t="s">
         <v>31</v>
       </c>
       <c r="C92" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>8808</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="G92">
         <v>275247</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J92" s="3">
-        <v>44186</v>
+        <v>44215</v>
       </c>
       <c r="K92" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L92">
-        <v>47.1931</v>
+        <v>47.193100000000001</v>
       </c>
       <c r="M92">
-        <v>7.3958</v>
+        <v>7.3958000000000004</v>
       </c>
       <c r="N92">
-        <v>0</v>
+        <v>8808</v>
       </c>
       <c r="O92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B93" t="s">
         <v>31</v>
       </c>
       <c r="C93" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D93">
-        <v>5003</v>
+        <v>10234</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>8808</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="G93">
         <v>275247</v>
       </c>
       <c r="H93">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J93" s="3">
-        <v>44209</v>
+        <v>44220</v>
       </c>
       <c r="K93" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L93">
-        <v>47.1931</v>
+        <v>47.193100000000001</v>
       </c>
       <c r="M93">
-        <v>7.3958</v>
+        <v>7.3958000000000004</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>8808</v>
       </c>
       <c r="O93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
         <v>31</v>
       </c>
       <c r="C94" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D94">
-        <v>7232</v>
+        <v>13272</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>8808</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="G94">
         <v>275247</v>
       </c>
       <c r="H94">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J94" s="3">
-        <v>44214</v>
+        <v>44223</v>
       </c>
       <c r="K94" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L94">
-        <v>47.1931</v>
+        <v>47.193100000000001</v>
       </c>
       <c r="M94">
-        <v>7.3958</v>
+        <v>7.3958000000000004</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>8808</v>
       </c>
       <c r="O94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C95" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D95">
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>8808</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>275247</v>
+        <v>160480</v>
       </c>
       <c r="H95">
-        <v>3.1</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>85</v>
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
       </c>
       <c r="J95" s="3">
+        <v>44186</v>
+      </c>
+      <c r="K95" t="s">
+        <v>86</v>
+      </c>
+      <c r="L95">
+        <v>47.127800000000001</v>
+      </c>
+      <c r="M95">
+        <v>8.7431000000000001</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>52</v>
+      </c>
+      <c r="B96" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" t="s">
+        <v>58</v>
+      </c>
+      <c r="D96">
+        <v>2000</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>160480</v>
+      </c>
+      <c r="H96">
+        <v>1.3</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>44215</v>
       </c>
-      <c r="K95" t="s">
-        <v>89</v>
-      </c>
-      <c r="L95">
-        <v>47.1931</v>
-      </c>
-      <c r="M95">
-        <v>7.3958</v>
-      </c>
-      <c r="N95">
-        <v>8808</v>
-      </c>
-      <c r="O95">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
-      <c r="A96" s="1">
-        <v>82</v>
-      </c>
-      <c r="B96" t="s">
-        <v>31</v>
-      </c>
-      <c r="C96" t="s">
-        <v>60</v>
-      </c>
-      <c r="D96">
-        <v>10234</v>
-      </c>
-      <c r="E96">
-        <v>8808</v>
-      </c>
-      <c r="F96">
-        <v>3.2</v>
-      </c>
-      <c r="G96">
-        <v>275247</v>
-      </c>
-      <c r="H96">
-        <v>3.7</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J96" s="3">
-        <v>44220</v>
-      </c>
       <c r="K96" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L96">
-        <v>47.1931</v>
+        <v>47.127800000000001</v>
       </c>
       <c r="M96">
-        <v>7.3958</v>
+        <v>8.7431000000000001</v>
       </c>
       <c r="N96">
-        <v>8808</v>
+        <v>0</v>
       </c>
       <c r="O96">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C97" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D97">
-        <v>13272</v>
+        <v>3045</v>
       </c>
       <c r="E97">
-        <v>8808</v>
+        <v>2500</v>
       </c>
       <c r="F97">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="G97">
-        <v>275247</v>
+        <v>160480</v>
       </c>
       <c r="H97">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J97" s="3">
-        <v>44223</v>
+        <v>44217</v>
       </c>
       <c r="K97" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L97">
-        <v>47.1931</v>
+        <v>47.127800000000001</v>
       </c>
       <c r="M97">
-        <v>7.3958</v>
+        <v>8.7431000000000001</v>
       </c>
       <c r="N97">
-        <v>8808</v>
+        <v>2500</v>
       </c>
       <c r="O97">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B98" t="s">
         <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>3250</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G98">
         <v>160480</v>
       </c>
       <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="J98" s="3">
-        <v>44186</v>
+        <v>44220</v>
       </c>
       <c r="K98" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L98">
-        <v>47.1278</v>
+        <v>47.127800000000001</v>
       </c>
       <c r="M98">
-        <v>8.7431</v>
+        <v>8.7431000000000001</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="O98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B99" t="s">
         <v>32</v>
       </c>
       <c r="C99" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D99">
-        <v>2000</v>
+        <v>4130</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G99">
         <v>160480</v>
       </c>
       <c r="H99">
-        <v>1.3</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
+        <v>2.6</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="J99" s="3">
-        <v>44215</v>
+        <v>44223</v>
       </c>
       <c r="K99" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L99">
-        <v>47.1278</v>
+        <v>47.127800000000001</v>
       </c>
       <c r="M99">
-        <v>8.7431</v>
+        <v>8.7431000000000001</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="O99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C100" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D100">
-        <v>3045</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>160480</v>
+        <v>279547</v>
       </c>
       <c r="H100">
-        <v>1.9</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>86</v>
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>44217</v>
+        <v>44186</v>
       </c>
       <c r="K100" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L100">
-        <v>47.1278</v>
+        <v>47.555799999999998</v>
       </c>
       <c r="M100">
-        <v>8.7431</v>
+        <v>8.8963999999999999</v>
       </c>
       <c r="N100">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="O100">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C101" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D101">
-        <v>3250</v>
+        <v>2980</v>
       </c>
       <c r="E101">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="F101">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="G101">
-        <v>160480</v>
+        <v>279547</v>
       </c>
       <c r="H101">
-        <v>2</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>86</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I101" t="s">
+        <v>69</v>
       </c>
       <c r="J101" s="3">
+        <v>44214</v>
+      </c>
+      <c r="K101" t="s">
+        <v>86</v>
+      </c>
+      <c r="L101">
+        <v>47.555799999999998</v>
+      </c>
+      <c r="M101">
+        <v>8.8963999999999999</v>
+      </c>
+      <c r="N101">
+        <v>1800</v>
+      </c>
+      <c r="O101">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>88</v>
+      </c>
+      <c r="B102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102">
+        <v>4072</v>
+      </c>
+      <c r="E102">
+        <v>1800</v>
+      </c>
+      <c r="F102">
+        <v>0.6</v>
+      </c>
+      <c r="G102">
+        <v>279547</v>
+      </c>
+      <c r="H102">
+        <v>1.5</v>
+      </c>
+      <c r="I102" t="s">
+        <v>69</v>
+      </c>
+      <c r="J102" s="3">
         <v>44220</v>
       </c>
-      <c r="K101" t="s">
-        <v>89</v>
-      </c>
-      <c r="L101">
-        <v>47.1278</v>
-      </c>
-      <c r="M101">
-        <v>8.7431</v>
-      </c>
-      <c r="N101">
-        <v>2500</v>
-      </c>
-      <c r="O101">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="A102" s="1">
-        <v>21</v>
-      </c>
-      <c r="B102" t="s">
-        <v>32</v>
-      </c>
-      <c r="C102" t="s">
-        <v>61</v>
-      </c>
-      <c r="D102">
-        <v>4130</v>
-      </c>
-      <c r="E102">
-        <v>2500</v>
-      </c>
-      <c r="F102">
-        <v>1.6</v>
-      </c>
-      <c r="G102">
-        <v>160480</v>
-      </c>
-      <c r="H102">
-        <v>2.6</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J102" s="3">
-        <v>44223</v>
-      </c>
       <c r="K102" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L102">
-        <v>47.1278</v>
+        <v>47.555799999999998</v>
       </c>
       <c r="M102">
-        <v>8.7431</v>
+        <v>8.8963999999999999</v>
       </c>
       <c r="N102">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="O102">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="B103" t="s">
         <v>33</v>
       </c>
       <c r="C103" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>6376</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G103">
         <v>279547</v>
       </c>
       <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I103" t="s">
+        <v>69</v>
       </c>
       <c r="J103" s="3">
+        <v>44223</v>
+      </c>
+      <c r="K103" t="s">
+        <v>86</v>
+      </c>
+      <c r="L103">
+        <v>47.555799999999998</v>
+      </c>
+      <c r="M103">
+        <v>8.8963999999999999</v>
+      </c>
+      <c r="N103">
+        <v>1800</v>
+      </c>
+      <c r="O103">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>60</v>
+      </c>
+      <c r="B104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" t="s">
+        <v>60</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>351491</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104" s="3">
         <v>44186</v>
       </c>
-      <c r="K103" t="s">
-        <v>89</v>
-      </c>
-      <c r="L103">
-        <v>47.5558</v>
-      </c>
-      <c r="M103">
-        <v>8.8964</v>
-      </c>
-      <c r="N103">
-        <v>0</v>
-      </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="1">
-        <v>63</v>
-      </c>
-      <c r="B104" t="s">
-        <v>33</v>
-      </c>
-      <c r="C104" t="s">
-        <v>62</v>
-      </c>
-      <c r="D104">
-        <v>2980</v>
-      </c>
-      <c r="E104">
-        <v>1800</v>
-      </c>
-      <c r="F104">
-        <v>0.6</v>
-      </c>
-      <c r="G104">
-        <v>279547</v>
-      </c>
-      <c r="H104">
-        <v>1.1</v>
-      </c>
-      <c r="I104" t="s">
-        <v>72</v>
-      </c>
-      <c r="J104" s="3">
+      <c r="K104" t="s">
+        <v>86</v>
+      </c>
+      <c r="L104">
+        <v>46.331699999999998</v>
+      </c>
+      <c r="M104">
+        <v>8.8004999999999995</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>61</v>
+      </c>
+      <c r="B105" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105">
+        <v>10275</v>
+      </c>
+      <c r="E105">
+        <v>9530</v>
+      </c>
+      <c r="F105">
+        <v>2.7</v>
+      </c>
+      <c r="G105">
+        <v>351491</v>
+      </c>
+      <c r="H105">
+        <v>2.9</v>
+      </c>
+      <c r="I105" t="s">
+        <v>84</v>
+      </c>
+      <c r="J105" s="3">
         <v>44214</v>
       </c>
-      <c r="K104" t="s">
-        <v>89</v>
-      </c>
-      <c r="L104">
-        <v>47.5558</v>
-      </c>
-      <c r="M104">
-        <v>8.8964</v>
-      </c>
-      <c r="N104">
-        <v>1800</v>
-      </c>
-      <c r="O104">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="A105" s="1">
-        <v>88</v>
-      </c>
-      <c r="B105" t="s">
-        <v>33</v>
-      </c>
-      <c r="C105" t="s">
-        <v>62</v>
-      </c>
-      <c r="D105">
-        <v>4072</v>
-      </c>
-      <c r="E105">
-        <v>1800</v>
-      </c>
-      <c r="F105">
-        <v>0.6</v>
-      </c>
-      <c r="G105">
-        <v>279547</v>
-      </c>
-      <c r="H105">
-        <v>1.5</v>
-      </c>
-      <c r="I105" t="s">
-        <v>72</v>
-      </c>
-      <c r="J105" s="3">
+      <c r="K105" t="s">
+        <v>86</v>
+      </c>
+      <c r="L105">
+        <v>46.331699999999998</v>
+      </c>
+      <c r="M105">
+        <v>8.8004999999999995</v>
+      </c>
+      <c r="N105">
+        <v>9530</v>
+      </c>
+      <c r="O105">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>100</v>
+      </c>
+      <c r="B106" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" t="s">
+        <v>60</v>
+      </c>
+      <c r="D106">
+        <v>11815</v>
+      </c>
+      <c r="E106">
+        <v>9530</v>
+      </c>
+      <c r="F106">
+        <v>2.7</v>
+      </c>
+      <c r="G106">
+        <v>351491</v>
+      </c>
+      <c r="H106">
+        <v>3.4</v>
+      </c>
+      <c r="I106" t="s">
+        <v>84</v>
+      </c>
+      <c r="J106" s="3">
         <v>44220</v>
       </c>
-      <c r="K105" t="s">
-        <v>89</v>
-      </c>
-      <c r="L105">
-        <v>47.5558</v>
-      </c>
-      <c r="M105">
-        <v>8.8964</v>
-      </c>
-      <c r="N105">
-        <v>1800</v>
-      </c>
-      <c r="O105">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="A106" s="1">
-        <v>16</v>
-      </c>
-      <c r="B106" t="s">
-        <v>33</v>
-      </c>
-      <c r="C106" t="s">
-        <v>62</v>
-      </c>
-      <c r="D106">
-        <v>6376</v>
-      </c>
-      <c r="E106">
-        <v>1800</v>
-      </c>
-      <c r="F106">
-        <v>0.6</v>
-      </c>
-      <c r="G106">
-        <v>279547</v>
-      </c>
-      <c r="H106">
-        <v>2.3</v>
-      </c>
-      <c r="I106" t="s">
-        <v>72</v>
-      </c>
-      <c r="J106" s="3">
-        <v>44223</v>
-      </c>
       <c r="K106" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L106">
-        <v>47.5558</v>
+        <v>46.331699999999998</v>
       </c>
       <c r="M106">
-        <v>8.8964</v>
+        <v>8.8004999999999995</v>
       </c>
       <c r="N106">
-        <v>1800</v>
+        <v>9530</v>
       </c>
       <c r="O106">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B107" t="s">
         <v>34</v>
       </c>
       <c r="C107" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>15823</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>9530</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="G107">
         <v>351491</v>
       </c>
       <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
+        <v>4.5</v>
+      </c>
+      <c r="I107" t="s">
+        <v>84</v>
       </c>
       <c r="J107" s="3">
+        <v>44223</v>
+      </c>
+      <c r="K107" t="s">
+        <v>86</v>
+      </c>
+      <c r="L107">
+        <v>46.331699999999998</v>
+      </c>
+      <c r="M107">
+        <v>8.8004999999999995</v>
+      </c>
+      <c r="N107">
+        <v>9530</v>
+      </c>
+      <c r="O107">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>64</v>
+      </c>
+      <c r="B108" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" t="s">
+        <v>61</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>36703</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" s="3">
         <v>44186</v>
       </c>
-      <c r="K107" t="s">
-        <v>89</v>
-      </c>
-      <c r="L107">
-        <v>46.3317</v>
-      </c>
-      <c r="M107">
-        <v>8.8005</v>
-      </c>
-      <c r="N107">
-        <v>0</v>
-      </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="A108" s="1">
+      <c r="K108" t="s">
+        <v>86</v>
+      </c>
+      <c r="L108">
+        <v>46.880600000000001</v>
+      </c>
+      <c r="M108">
+        <v>8.6394000000000002</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>65</v>
+      </c>
+      <c r="B109" t="s">
+        <v>35</v>
+      </c>
+      <c r="C109" t="s">
         <v>61</v>
       </c>
-      <c r="B108" t="s">
-        <v>34</v>
-      </c>
-      <c r="C108" t="s">
-        <v>63</v>
-      </c>
-      <c r="D108">
-        <v>10275</v>
-      </c>
-      <c r="E108">
-        <v>9530</v>
-      </c>
-      <c r="F108">
-        <v>2.7</v>
-      </c>
-      <c r="G108">
-        <v>351491</v>
-      </c>
-      <c r="H108">
-        <v>2.9</v>
-      </c>
-      <c r="I108" t="s">
-        <v>87</v>
-      </c>
-      <c r="J108" s="3">
-        <v>44214</v>
-      </c>
-      <c r="K108" t="s">
-        <v>89</v>
-      </c>
-      <c r="L108">
-        <v>46.3317</v>
-      </c>
-      <c r="M108">
-        <v>8.8005</v>
-      </c>
-      <c r="N108">
-        <v>9530</v>
-      </c>
-      <c r="O108">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="A109" s="1">
-        <v>100</v>
-      </c>
-      <c r="B109" t="s">
-        <v>34</v>
-      </c>
-      <c r="C109" t="s">
-        <v>63</v>
-      </c>
       <c r="D109">
-        <v>11815</v>
+        <v>1134</v>
       </c>
       <c r="E109">
-        <v>9530</v>
+        <v>1030</v>
       </c>
       <c r="F109">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G109">
-        <v>351491</v>
+        <v>36703</v>
       </c>
       <c r="H109">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I109" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="J109" s="3">
+        <v>44217</v>
+      </c>
+      <c r="K109" t="s">
+        <v>86</v>
+      </c>
+      <c r="L109">
+        <v>46.880600000000001</v>
+      </c>
+      <c r="M109">
+        <v>8.6394000000000002</v>
+      </c>
+      <c r="N109">
+        <v>1030</v>
+      </c>
+      <c r="O109">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>98</v>
+      </c>
+      <c r="B110" t="s">
+        <v>35</v>
+      </c>
+      <c r="C110" t="s">
+        <v>61</v>
+      </c>
+      <c r="D110">
+        <v>1361</v>
+      </c>
+      <c r="E110">
+        <v>1030</v>
+      </c>
+      <c r="F110">
+        <v>2.8</v>
+      </c>
+      <c r="G110">
+        <v>36703</v>
+      </c>
+      <c r="H110">
+        <v>3.7</v>
+      </c>
+      <c r="I110" t="s">
+        <v>68</v>
+      </c>
+      <c r="J110" s="3">
         <v>44220</v>
       </c>
-      <c r="K109" t="s">
-        <v>89</v>
-      </c>
-      <c r="L109">
-        <v>46.3317</v>
-      </c>
-      <c r="M109">
-        <v>8.8005</v>
-      </c>
-      <c r="N109">
-        <v>9530</v>
-      </c>
-      <c r="O109">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="A110" s="1">
-        <v>28</v>
-      </c>
-      <c r="B110" t="s">
-        <v>34</v>
-      </c>
-      <c r="C110" t="s">
-        <v>63</v>
-      </c>
-      <c r="D110">
-        <v>15823</v>
-      </c>
-      <c r="E110">
-        <v>9530</v>
-      </c>
-      <c r="F110">
-        <v>2.7</v>
-      </c>
-      <c r="G110">
-        <v>351491</v>
-      </c>
-      <c r="H110">
-        <v>4.5</v>
-      </c>
-      <c r="I110" t="s">
-        <v>87</v>
-      </c>
-      <c r="J110" s="3">
-        <v>44223</v>
-      </c>
       <c r="K110" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L110">
-        <v>46.3317</v>
+        <v>46.880600000000001</v>
       </c>
       <c r="M110">
-        <v>8.8005</v>
+        <v>8.6394000000000002</v>
       </c>
       <c r="N110">
-        <v>9530</v>
+        <v>1030</v>
       </c>
       <c r="O110">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B111" t="s">
         <v>35</v>
       </c>
       <c r="C111" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>1873</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G111">
         <v>36703</v>
       </c>
       <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I111" t="s">
+        <v>68</v>
       </c>
       <c r="J111" s="3">
+        <v>44223</v>
+      </c>
+      <c r="K111" t="s">
+        <v>86</v>
+      </c>
+      <c r="L111">
+        <v>46.880600000000001</v>
+      </c>
+      <c r="M111">
+        <v>8.6394000000000002</v>
+      </c>
+      <c r="N111">
+        <v>1030</v>
+      </c>
+      <c r="O111">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>66</v>
+      </c>
+      <c r="B112" t="s">
+        <v>36</v>
+      </c>
+      <c r="C112" t="s">
+        <v>62</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>805098</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112" s="3">
         <v>44186</v>
       </c>
-      <c r="K111" t="s">
-        <v>89</v>
-      </c>
-      <c r="L111">
-        <v>46.8806</v>
-      </c>
-      <c r="M111">
-        <v>8.6394</v>
-      </c>
-      <c r="N111">
-        <v>0</v>
-      </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
-      <c r="A112" s="1">
-        <v>65</v>
-      </c>
-      <c r="B112" t="s">
-        <v>35</v>
-      </c>
-      <c r="C112" t="s">
-        <v>64</v>
-      </c>
-      <c r="D112">
-        <v>1134</v>
-      </c>
-      <c r="E112">
-        <v>1030</v>
-      </c>
-      <c r="F112">
-        <v>2.8</v>
-      </c>
-      <c r="G112">
-        <v>36703</v>
-      </c>
-      <c r="H112">
-        <v>3.1</v>
-      </c>
-      <c r="I112" t="s">
-        <v>71</v>
-      </c>
-      <c r="J112" s="3">
-        <v>44217</v>
-      </c>
       <c r="K112" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L112">
-        <v>46.8806</v>
+        <v>46.561300000000003</v>
       </c>
       <c r="M112">
-        <v>8.6394</v>
+        <v>6.5368000000000004</v>
       </c>
       <c r="N112">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="O112">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C113" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D113">
-        <v>1361</v>
+        <v>5500</v>
       </c>
       <c r="E113">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>36703</v>
+        <v>805098</v>
       </c>
       <c r="H113">
-        <v>3.7</v>
-      </c>
-      <c r="I113" t="s">
-        <v>71</v>
+        <v>0.7</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
       </c>
       <c r="J113" s="3">
-        <v>44220</v>
+        <v>44209</v>
       </c>
       <c r="K113" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L113">
-        <v>46.8806</v>
+        <v>46.561300000000003</v>
       </c>
       <c r="M113">
-        <v>8.6394</v>
+        <v>6.5368000000000004</v>
       </c>
       <c r="N113">
-        <v>1030</v>
+        <v>0</v>
       </c>
       <c r="O113">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D114">
-        <v>1873</v>
+        <v>13392</v>
       </c>
       <c r="E114">
-        <v>1030</v>
+        <v>5500</v>
       </c>
       <c r="F114">
-        <v>2.8</v>
+        <v>0.7</v>
       </c>
       <c r="G114">
-        <v>36703</v>
+        <v>805098</v>
       </c>
       <c r="H114">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="I114" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J114" s="3">
-        <v>44223</v>
+        <v>44211</v>
       </c>
       <c r="K114" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L114">
-        <v>46.8806</v>
+        <v>46.561300000000003</v>
       </c>
       <c r="M114">
-        <v>8.6394</v>
+        <v>6.5368000000000004</v>
       </c>
       <c r="N114">
-        <v>1030</v>
+        <v>5500</v>
       </c>
       <c r="O114">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B115" t="s">
         <v>36</v>
       </c>
       <c r="C115" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>15847</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G115">
         <v>805098</v>
       </c>
       <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I115" t="s">
+        <v>69</v>
       </c>
       <c r="J115" s="3">
-        <v>44186</v>
+        <v>44220</v>
       </c>
       <c r="K115" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L115">
-        <v>46.5613</v>
+        <v>46.561300000000003</v>
       </c>
       <c r="M115">
-        <v>6.5368</v>
+        <v>6.5368000000000004</v>
       </c>
       <c r="N115">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="O115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="B116" t="s">
         <v>36</v>
       </c>
       <c r="C116" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D116">
+        <v>22846</v>
+      </c>
+      <c r="E116">
         <v>5500</v>
       </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
       <c r="F116">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G116">
         <v>805098</v>
       </c>
       <c r="H116">
+        <v>2.8</v>
+      </c>
+      <c r="I116" t="s">
+        <v>69</v>
+      </c>
+      <c r="J116" s="3">
+        <v>44223</v>
+      </c>
+      <c r="K116" t="s">
+        <v>86</v>
+      </c>
+      <c r="L116">
+        <v>46.561300000000003</v>
+      </c>
+      <c r="M116">
+        <v>6.5368000000000004</v>
+      </c>
+      <c r="N116">
+        <v>5500</v>
+      </c>
+      <c r="O116">
         <v>0.7</v>
       </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116" s="3">
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>69</v>
+      </c>
+      <c r="B117" t="s">
+        <v>37</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>343955</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117" s="3">
+        <v>44186</v>
+      </c>
+      <c r="K117" t="s">
+        <v>86</v>
+      </c>
+      <c r="L117">
+        <v>46.1905</v>
+      </c>
+      <c r="M117">
+        <v>7.5449000000000002</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>70</v>
+      </c>
+      <c r="B118" t="s">
+        <v>37</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>343955</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118" s="3">
         <v>44209</v>
       </c>
-      <c r="K116" t="s">
-        <v>89</v>
-      </c>
-      <c r="L116">
-        <v>46.5613</v>
-      </c>
-      <c r="M116">
-        <v>6.5368</v>
-      </c>
-      <c r="N116">
-        <v>0</v>
-      </c>
-      <c r="O116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="A117" s="1">
-        <v>68</v>
-      </c>
-      <c r="B117" t="s">
-        <v>36</v>
-      </c>
-      <c r="C117" t="s">
-        <v>65</v>
-      </c>
-      <c r="D117">
-        <v>13392</v>
-      </c>
-      <c r="E117">
-        <v>5500</v>
-      </c>
-      <c r="F117">
-        <v>0.7</v>
-      </c>
-      <c r="G117">
-        <v>805098</v>
-      </c>
-      <c r="H117">
-        <v>1.7</v>
-      </c>
-      <c r="I117" t="s">
-        <v>72</v>
-      </c>
-      <c r="J117" s="3">
-        <v>44211</v>
-      </c>
-      <c r="K117" t="s">
-        <v>89</v>
-      </c>
-      <c r="L117">
-        <v>46.5613</v>
-      </c>
-      <c r="M117">
-        <v>6.5368</v>
-      </c>
-      <c r="N117">
-        <v>5500</v>
-      </c>
-      <c r="O117">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
-      <c r="A118" s="1">
-        <v>76</v>
-      </c>
-      <c r="B118" t="s">
-        <v>36</v>
-      </c>
-      <c r="C118" t="s">
-        <v>65</v>
-      </c>
-      <c r="D118">
-        <v>15847</v>
-      </c>
-      <c r="E118">
-        <v>5500</v>
-      </c>
-      <c r="F118">
-        <v>0.7</v>
-      </c>
-      <c r="G118">
-        <v>805098</v>
-      </c>
-      <c r="H118">
-        <v>2</v>
-      </c>
-      <c r="I118" t="s">
-        <v>72</v>
-      </c>
-      <c r="J118" s="3">
+      <c r="K118" t="s">
+        <v>86</v>
+      </c>
+      <c r="L118">
+        <v>46.1905</v>
+      </c>
+      <c r="M118">
+        <v>7.5449000000000002</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>77</v>
+      </c>
+      <c r="B119" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119">
+        <v>10210</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>343955</v>
+      </c>
+      <c r="H119">
+        <v>3</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" s="3">
         <v>44220</v>
       </c>
-      <c r="K118" t="s">
-        <v>89</v>
-      </c>
-      <c r="L118">
-        <v>46.5613</v>
-      </c>
-      <c r="M118">
-        <v>6.5368</v>
-      </c>
-      <c r="N118">
-        <v>5500</v>
-      </c>
-      <c r="O118">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
-      <c r="A119" s="1">
-        <v>4</v>
-      </c>
-      <c r="B119" t="s">
-        <v>36</v>
-      </c>
-      <c r="C119" t="s">
-        <v>65</v>
-      </c>
-      <c r="D119">
-        <v>22846</v>
-      </c>
-      <c r="E119">
-        <v>5500</v>
-      </c>
-      <c r="F119">
-        <v>0.7</v>
-      </c>
-      <c r="G119">
-        <v>805098</v>
-      </c>
-      <c r="H119">
-        <v>2.8</v>
-      </c>
-      <c r="I119" t="s">
-        <v>72</v>
-      </c>
-      <c r="J119" s="3">
-        <v>44223</v>
-      </c>
       <c r="K119" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L119">
-        <v>46.5613</v>
+        <v>46.1905</v>
       </c>
       <c r="M119">
-        <v>6.5368</v>
+        <v>7.5449000000000002</v>
       </c>
       <c r="N119">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="O119">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
         <v>37</v>
       </c>
       <c r="C120" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>13725</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -6277,22 +6336,22 @@
         <v>343955</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" s="3">
-        <v>44186</v>
+        <v>44223</v>
       </c>
       <c r="K120" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L120">
         <v>46.1905</v>
       </c>
       <c r="M120">
-        <v>7.5449</v>
+        <v>7.5449000000000002</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6301,15 +6360,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C121" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -6321,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>343955</v>
+        <v>127642</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -6330,16 +6389,16 @@
         <v>0</v>
       </c>
       <c r="J121" s="3">
-        <v>44209</v>
+        <v>44186</v>
       </c>
       <c r="K121" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L121">
-        <v>46.1905</v>
+        <v>47.169199999999996</v>
       </c>
       <c r="M121">
-        <v>7.5449</v>
+        <v>8.5164000000000009</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6348,300 +6407,300 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C122" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D122">
-        <v>10210</v>
+        <v>4700</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>3983</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="G122">
-        <v>343955</v>
+        <v>127642</v>
       </c>
       <c r="H122">
-        <v>3</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
+        <v>3.7</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="J122" s="3">
+        <v>44216</v>
+      </c>
+      <c r="K122" t="s">
+        <v>86</v>
+      </c>
+      <c r="L122">
+        <v>47.169199999999996</v>
+      </c>
+      <c r="M122">
+        <v>8.5164000000000009</v>
+      </c>
+      <c r="N122">
+        <v>3983</v>
+      </c>
+      <c r="O122">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>94</v>
+      </c>
+      <c r="B123" t="s">
+        <v>38</v>
+      </c>
+      <c r="C123" t="s">
+        <v>64</v>
+      </c>
+      <c r="D123">
+        <v>6599</v>
+      </c>
+      <c r="E123">
+        <v>3983</v>
+      </c>
+      <c r="F123">
+        <v>3.1</v>
+      </c>
+      <c r="G123">
+        <v>127642</v>
+      </c>
+      <c r="H123">
+        <v>5.2</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J123" s="3">
         <v>44220</v>
       </c>
-      <c r="K122" t="s">
-        <v>89</v>
-      </c>
-      <c r="L122">
-        <v>46.1905</v>
-      </c>
-      <c r="M122">
-        <v>7.5449</v>
-      </c>
-      <c r="N122">
-        <v>0</v>
-      </c>
-      <c r="O122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="A123" s="1">
-        <v>5</v>
-      </c>
-      <c r="B123" t="s">
-        <v>37</v>
-      </c>
-      <c r="C123" t="s">
-        <v>66</v>
-      </c>
-      <c r="D123">
-        <v>13725</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>343955</v>
-      </c>
-      <c r="H123">
-        <v>4</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123" s="3">
-        <v>44223</v>
-      </c>
       <c r="K123" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L123">
-        <v>46.1905</v>
+        <v>47.169199999999996</v>
       </c>
       <c r="M123">
-        <v>7.5449</v>
+        <v>8.5164000000000009</v>
       </c>
       <c r="N123">
-        <v>0</v>
+        <v>3983</v>
       </c>
       <c r="O123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B124" t="s">
         <v>38</v>
       </c>
       <c r="C124" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>7361</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>3983</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="G124">
         <v>127642</v>
       </c>
       <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
+        <v>5.8</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="J124" s="3">
+        <v>44223</v>
+      </c>
+      <c r="K124" t="s">
+        <v>86</v>
+      </c>
+      <c r="L124">
+        <v>47.169199999999996</v>
+      </c>
+      <c r="M124">
+        <v>8.5164000000000009</v>
+      </c>
+      <c r="N124">
+        <v>3983</v>
+      </c>
+      <c r="O124">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>73</v>
+      </c>
+      <c r="B125" t="s">
+        <v>39</v>
+      </c>
+      <c r="C125" t="s">
+        <v>65</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>1539275</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125" s="3">
         <v>44186</v>
       </c>
-      <c r="K124" t="s">
-        <v>89</v>
-      </c>
-      <c r="L124">
-        <v>47.1692</v>
-      </c>
-      <c r="M124">
-        <v>8.516400000000001</v>
-      </c>
-      <c r="N124">
-        <v>0</v>
-      </c>
-      <c r="O124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
-      <c r="A125" s="1">
-        <v>72</v>
-      </c>
-      <c r="B125" t="s">
-        <v>38</v>
-      </c>
-      <c r="C125" t="s">
-        <v>67</v>
-      </c>
-      <c r="D125">
-        <v>4700</v>
-      </c>
-      <c r="E125">
-        <v>3983</v>
-      </c>
-      <c r="F125">
-        <v>3.1</v>
-      </c>
-      <c r="G125">
-        <v>127642</v>
-      </c>
-      <c r="H125">
-        <v>3.7</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J125" s="3">
-        <v>44216</v>
-      </c>
       <c r="K125" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L125">
-        <v>47.1692</v>
+        <v>47.378599999999999</v>
       </c>
       <c r="M125">
-        <v>8.516400000000001</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="N125">
-        <v>3983</v>
+        <v>0</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C126" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D126">
-        <v>6599</v>
+        <v>24989</v>
       </c>
       <c r="E126">
-        <v>3983</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>127642</v>
+        <v>1539275</v>
       </c>
       <c r="H126">
-        <v>5.2</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>88</v>
+        <v>1.6</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
       </c>
       <c r="J126" s="3">
+        <v>44218</v>
+      </c>
+      <c r="K126" t="s">
+        <v>86</v>
+      </c>
+      <c r="L126">
+        <v>47.378599999999999</v>
+      </c>
+      <c r="M126">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>86</v>
+      </c>
+      <c r="B127" t="s">
+        <v>39</v>
+      </c>
+      <c r="C127" t="s">
+        <v>65</v>
+      </c>
+      <c r="D127">
+        <v>25528</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>1539275</v>
+      </c>
+      <c r="H127">
+        <v>1.7</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127" s="3">
         <v>44220</v>
       </c>
-      <c r="K126" t="s">
-        <v>89</v>
-      </c>
-      <c r="L126">
-        <v>47.1692</v>
-      </c>
-      <c r="M126">
-        <v>8.516400000000001</v>
-      </c>
-      <c r="N126">
-        <v>3983</v>
-      </c>
-      <c r="O126">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="A127" s="1">
-        <v>22</v>
-      </c>
-      <c r="B127" t="s">
-        <v>38</v>
-      </c>
-      <c r="C127" t="s">
-        <v>67</v>
-      </c>
-      <c r="D127">
-        <v>7361</v>
-      </c>
-      <c r="E127">
-        <v>3983</v>
-      </c>
-      <c r="F127">
-        <v>3.1</v>
-      </c>
-      <c r="G127">
-        <v>127642</v>
-      </c>
-      <c r="H127">
-        <v>5.8</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J127" s="3">
-        <v>44223</v>
-      </c>
       <c r="K127" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L127">
-        <v>47.1692</v>
+        <v>47.378599999999999</v>
       </c>
       <c r="M127">
-        <v>8.516400000000001</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="N127">
-        <v>3983</v>
+        <v>0</v>
       </c>
       <c r="O127">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B128" t="s">
         <v>39</v>
       </c>
       <c r="C128" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>34900</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -6653,22 +6712,22 @@
         <v>1539275</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128" s="3">
-        <v>44186</v>
+        <v>44223</v>
       </c>
       <c r="K128" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L128">
-        <v>47.3786</v>
+        <v>47.378599999999999</v>
       </c>
       <c r="M128">
-        <v>8.539999999999999</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -6677,216 +6736,514 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
-      <c r="A129" s="1">
-        <v>74</v>
-      </c>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" t="s">
+        <v>47</v>
+      </c>
+      <c r="D129">
+        <v>18012</v>
+      </c>
+      <c r="H129">
+        <v>3.57</v>
+      </c>
+      <c r="J129" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>36</v>
+      </c>
+      <c r="C130" t="s">
+        <v>62</v>
+      </c>
+      <c r="D130">
+        <v>27848</v>
+      </c>
+      <c r="H130">
+        <v>3.46</v>
+      </c>
+      <c r="J130" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>37</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131">
+        <v>14240</v>
+      </c>
+      <c r="H131">
+        <v>4.12</v>
+      </c>
+      <c r="J131" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" t="s">
+        <v>46</v>
+      </c>
+      <c r="D132">
+        <v>9580</v>
+      </c>
+      <c r="H132">
+        <v>2.98</v>
+      </c>
+      <c r="J132" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>26</v>
+      </c>
+      <c r="C133" t="s">
+        <v>52</v>
+      </c>
+      <c r="D133">
+        <v>4907</v>
+      </c>
+      <c r="H133">
+        <v>2.78</v>
+      </c>
+      <c r="J133" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" t="s">
+        <v>50</v>
+      </c>
+      <c r="D134">
+        <v>2792</v>
+      </c>
+      <c r="H134">
+        <v>3.79</v>
+      </c>
+      <c r="J134" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" t="s">
+        <v>43</v>
+      </c>
+      <c r="D135">
+        <v>24385</v>
+      </c>
+      <c r="H135">
+        <v>2.35</v>
+      </c>
+      <c r="J135" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>31</v>
+      </c>
+      <c r="C136" t="s">
+        <v>57</v>
+      </c>
+      <c r="D136">
+        <v>15099</v>
+      </c>
+      <c r="H136">
+        <v>5.49</v>
+      </c>
+      <c r="J136" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" t="s">
+        <v>45</v>
+      </c>
+      <c r="D137">
+        <v>13754</v>
+      </c>
+      <c r="H137">
+        <v>7.02</v>
+      </c>
+      <c r="J137" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" t="s">
+        <v>44</v>
+      </c>
+      <c r="D138">
+        <v>11364</v>
+      </c>
+      <c r="H138">
+        <v>3.93</v>
+      </c>
+      <c r="J138" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" t="s">
+        <v>40</v>
+      </c>
+      <c r="D139">
+        <v>20034</v>
+      </c>
+      <c r="H139">
+        <v>2.92</v>
+      </c>
+      <c r="J139" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
         <v>39</v>
       </c>
-      <c r="C129" t="s">
-        <v>68</v>
-      </c>
-      <c r="D129">
-        <v>24989</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129">
-        <v>1539275</v>
-      </c>
-      <c r="H129">
-        <v>1.6</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129" s="3">
-        <v>44218</v>
-      </c>
-      <c r="K129" t="s">
-        <v>89</v>
-      </c>
-      <c r="L129">
-        <v>47.3786</v>
-      </c>
-      <c r="M129">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="N129">
-        <v>0</v>
-      </c>
-      <c r="O129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
-      <c r="A130" s="1">
-        <v>86</v>
-      </c>
-      <c r="B130" t="s">
-        <v>39</v>
-      </c>
-      <c r="C130" t="s">
-        <v>68</v>
-      </c>
-      <c r="D130">
-        <v>25528</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <v>1539275</v>
-      </c>
-      <c r="H130">
-        <v>1.7</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130" s="3">
-        <v>44220</v>
-      </c>
-      <c r="K130" t="s">
-        <v>89</v>
-      </c>
-      <c r="L130">
-        <v>47.3786</v>
-      </c>
-      <c r="M130">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="N130">
-        <v>0</v>
-      </c>
-      <c r="O130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
-      <c r="A131" s="1">
-        <v>14</v>
-      </c>
-      <c r="B131" t="s">
-        <v>39</v>
-      </c>
-      <c r="C131" t="s">
-        <v>68</v>
-      </c>
-      <c r="D131">
-        <v>34900</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <v>1539275</v>
-      </c>
-      <c r="H131">
-        <v>2.3</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131" s="3">
-        <v>44223</v>
-      </c>
-      <c r="K131" t="s">
-        <v>89</v>
-      </c>
-      <c r="L131">
-        <v>47.3786</v>
-      </c>
-      <c r="M131">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="N131">
-        <v>0</v>
-      </c>
-      <c r="O131">
-        <v>0</v>
+      <c r="C140" t="s">
+        <v>65</v>
+      </c>
+      <c r="D140">
+        <v>46081</v>
+      </c>
+      <c r="H140">
+        <v>2.99</v>
+      </c>
+      <c r="J140" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141" t="s">
+        <v>56</v>
+      </c>
+      <c r="D141">
+        <v>5685</v>
+      </c>
+      <c r="H141">
+        <v>6.9</v>
+      </c>
+      <c r="J141" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" t="s">
+        <v>59</v>
+      </c>
+      <c r="D142">
+        <v>8868</v>
+      </c>
+      <c r="H142">
+        <v>3.17</v>
+      </c>
+      <c r="J142" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" t="s">
+        <v>42</v>
+      </c>
+      <c r="D143">
+        <v>3542</v>
+      </c>
+      <c r="H143">
+        <v>6.39</v>
+      </c>
+      <c r="J143" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" t="s">
+        <v>41</v>
+      </c>
+      <c r="D144">
+        <v>1092</v>
+      </c>
+      <c r="H144">
+        <v>6.77</v>
+      </c>
+      <c r="J144" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>29</v>
+      </c>
+      <c r="C145" t="s">
+        <v>55</v>
+      </c>
+      <c r="D145">
+        <v>19281</v>
+      </c>
+      <c r="H145">
+        <v>3.78</v>
+      </c>
+      <c r="J145" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" t="s">
+        <v>48</v>
+      </c>
+      <c r="D146">
+        <v>2330</v>
+      </c>
+      <c r="H146">
+        <v>5.74</v>
+      </c>
+      <c r="J146" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" t="s">
+        <v>58</v>
+      </c>
+      <c r="D147">
+        <v>5165</v>
+      </c>
+      <c r="H147">
+        <v>3.22</v>
+      </c>
+      <c r="J147" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>38</v>
+      </c>
+      <c r="C148" t="s">
+        <v>64</v>
+      </c>
+      <c r="D148">
+        <v>7431</v>
+      </c>
+      <c r="H148">
+        <v>5.82</v>
+      </c>
+      <c r="J148" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149" t="s">
+        <v>51</v>
+      </c>
+      <c r="D149">
+        <v>18076</v>
+      </c>
+      <c r="H149">
+        <v>4.38</v>
+      </c>
+      <c r="J149" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150" t="s">
+        <v>53</v>
+      </c>
+      <c r="D150">
+        <v>3218</v>
+      </c>
+      <c r="H150">
+        <v>7.47</v>
+      </c>
+      <c r="J150" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>28</v>
+      </c>
+      <c r="C151" t="s">
+        <v>54</v>
+      </c>
+      <c r="D151">
+        <v>2156</v>
+      </c>
+      <c r="H151">
+        <v>5.68</v>
+      </c>
+      <c r="J151" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>35</v>
+      </c>
+      <c r="C152" t="s">
+        <v>61</v>
+      </c>
+      <c r="D152">
+        <v>2184</v>
+      </c>
+      <c r="H152">
+        <v>5.95</v>
+      </c>
+      <c r="J152" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" t="s">
+        <v>49</v>
+      </c>
+      <c r="D153">
+        <v>7339</v>
+      </c>
+      <c r="H153">
+        <v>3.69</v>
+      </c>
+      <c r="J153" s="4">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>34</v>
+      </c>
+      <c r="C154" t="s">
+        <v>60</v>
+      </c>
+      <c r="D154">
+        <v>19737</v>
+      </c>
+      <c r="H154">
+        <v>5.62</v>
+      </c>
+      <c r="J154" s="4">
+        <v>44227</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I7" r:id="rId5"/>
-    <hyperlink ref="I15" r:id="rId6"/>
-    <hyperlink ref="I16" r:id="rId7"/>
-    <hyperlink ref="I17" r:id="rId8"/>
-    <hyperlink ref="I18" r:id="rId9"/>
-    <hyperlink ref="I19" r:id="rId10"/>
-    <hyperlink ref="I20" r:id="rId11"/>
-    <hyperlink ref="I21" r:id="rId12"/>
-    <hyperlink ref="I25" r:id="rId13"/>
-    <hyperlink ref="I26" r:id="rId14"/>
-    <hyperlink ref="I27" r:id="rId15"/>
-    <hyperlink ref="I28" r:id="rId16"/>
-    <hyperlink ref="I29" r:id="rId17"/>
-    <hyperlink ref="I30" r:id="rId18"/>
-    <hyperlink ref="I31" r:id="rId19"/>
-    <hyperlink ref="I32" r:id="rId20"/>
-    <hyperlink ref="I33" r:id="rId21"/>
-    <hyperlink ref="I34" r:id="rId22"/>
-    <hyperlink ref="I35" r:id="rId23"/>
-    <hyperlink ref="I36" r:id="rId24"/>
-    <hyperlink ref="I37" r:id="rId25"/>
-    <hyperlink ref="I38" r:id="rId26"/>
-    <hyperlink ref="I39" r:id="rId27"/>
-    <hyperlink ref="I43" r:id="rId28"/>
-    <hyperlink ref="I44" r:id="rId29"/>
-    <hyperlink ref="I45" r:id="rId30"/>
-    <hyperlink ref="I46" r:id="rId31"/>
-    <hyperlink ref="I47" r:id="rId32"/>
-    <hyperlink ref="I48" r:id="rId33"/>
-    <hyperlink ref="I51" r:id="rId34"/>
-    <hyperlink ref="I52" r:id="rId35"/>
-    <hyperlink ref="I53" r:id="rId36"/>
-    <hyperlink ref="I59" r:id="rId37"/>
-    <hyperlink ref="I60" r:id="rId38"/>
-    <hyperlink ref="I61" r:id="rId39"/>
-    <hyperlink ref="I62" r:id="rId40"/>
-    <hyperlink ref="I63" r:id="rId41"/>
-    <hyperlink ref="I65" r:id="rId42"/>
-    <hyperlink ref="I70" r:id="rId43"/>
-    <hyperlink ref="I71" r:id="rId44"/>
-    <hyperlink ref="I72" r:id="rId45"/>
-    <hyperlink ref="I74" r:id="rId46"/>
-    <hyperlink ref="I75" r:id="rId47"/>
-    <hyperlink ref="I84" r:id="rId48"/>
-    <hyperlink ref="I85" r:id="rId49"/>
-    <hyperlink ref="I86" r:id="rId50"/>
-    <hyperlink ref="I87" r:id="rId51"/>
-    <hyperlink ref="I88" r:id="rId52"/>
-    <hyperlink ref="I89" r:id="rId53"/>
-    <hyperlink ref="I90" r:id="rId54"/>
-    <hyperlink ref="I91" r:id="rId55"/>
-    <hyperlink ref="I92" r:id="rId56"/>
-    <hyperlink ref="I93" r:id="rId57"/>
-    <hyperlink ref="I94" r:id="rId58"/>
-    <hyperlink ref="I95" r:id="rId59"/>
-    <hyperlink ref="I96" r:id="rId60"/>
-    <hyperlink ref="I97" r:id="rId61"/>
-    <hyperlink ref="I100" r:id="rId62"/>
-    <hyperlink ref="I101" r:id="rId63"/>
-    <hyperlink ref="I102" r:id="rId64"/>
-    <hyperlink ref="I125" r:id="rId65"/>
-    <hyperlink ref="I126" r:id="rId66"/>
-    <hyperlink ref="I127" r:id="rId67"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I29" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I30" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I31" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I35" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="I36" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I40" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I41" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I42" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I43" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I44" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I45" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I48" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I49" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I50" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I56" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I57" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I58" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I59" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="I60" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I62" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="I67" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I68" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="I69" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I71" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="I72" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I81" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I82" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I83" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="I84" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I85" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="I86" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I87" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="I88" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="I89" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="I90" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="I91" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="I92" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I93" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="I94" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="I97" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="I98" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="I99" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="I122" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="I123" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="I124" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
